--- a/spreadsheets/TuitionUMNTC.xlsx
+++ b/spreadsheets/TuitionUMNTC.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webstmj\Dropbox\DataJ\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE33A0C-24F6-496A-9938-F5F062974CE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tuition" sheetId="1" r:id="rId1"/>
+    <sheet name="CPI" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>University of Minnesota Annual Tuition Rates: 1960-61 to 2016-17: Twin Cities Campus</t>
   </si>
@@ -249,6 +250,9 @@
   </si>
   <si>
     <t>per semester and $1,000 starting Fall 2015.</t>
+  </si>
+  <si>
+    <t>CPI</t>
   </si>
 </sst>
 </file>
@@ -668,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2016,12 +2020,476 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="6">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="6">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="6">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="6">
+        <v>130.69999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="6">
+        <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="6">
+        <v>140.30000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="6">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="6">
+        <v>148.19999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="6">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6">
+        <v>156.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="6">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="6">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="6">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="6">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="6">
+        <v>195.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="6">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="7">
+        <v>207.34200000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="7">
+        <v>215.303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="7">
+        <v>214.53700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="7">
+        <v>218.05600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="7">
+        <v>224.93899999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="7">
+        <v>229.59399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="7">
+        <v>232.95699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="7">
+        <v>236.73599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="7">
+        <v>237.017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="7">
+        <v>240.00700000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
